--- a/data/trans_orig/P44-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88FD120B-27C2-4B9D-B8DA-E55718ADCCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F14E143-CC02-494E-A9D2-FEC41D9EB33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BBB7A60-D9D5-4E55-BE12-E35F91D12320}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{735DF2B1-42FC-4B47-9874-891472C534FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>14,0%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>96,09%</t>
   </si>
   <si>
-    <t>86,08%</t>
+    <t>86,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>94,1%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>94,98%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -199,457 +199,487 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>12,35%</t>
+    <t>12,43%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>6,87%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>10,32%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,68%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>7,48%</t>
@@ -658,31 +688,31 @@
     <t>6,16%</t>
   </si>
   <si>
-    <t>8,99%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>91,01%</t>
+    <t>90,99%</t>
   </si>
   <si>
     <t>93,84%</t>
@@ -691,10 +721,10 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -703,325 +733,319 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>19,13%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>68,31%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>57,17%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>66,88%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DCC33A-A3F0-4B41-AE24-3B1DAEE34050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A92E5D-AFCC-4B3B-9B8B-33C254562992}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2496,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EB6045-3272-4CC9-8B9C-BEF304933015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD6E38F-0C90-4FDD-8F77-5EB50CAD7754}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,10 +2647,10 @@
         <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2635,13 +2659,13 @@
         <v>4959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2650,13 +2674,13 @@
         <v>13215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2695,13 @@
         <v>45877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -2686,13 +2710,13 @@
         <v>45238</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -2701,13 +2725,13 @@
         <v>91115</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2799,13 @@
         <v>23446</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2790,13 +2814,13 @@
         <v>22757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2808,10 +2832,10 @@
         <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2850,13 @@
         <v>213961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -2841,13 +2865,13 @@
         <v>249943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>441</v>
@@ -2859,10 +2883,10 @@
         <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2954,13 @@
         <v>40300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2945,13 +2969,13 @@
         <v>34695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2960,13 +2984,13 @@
         <v>74994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3005,13 @@
         <v>365541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -2996,13 +3020,13 @@
         <v>433631</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>721</v>
@@ -3011,13 +3035,13 @@
         <v>799173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3109,13 @@
         <v>32674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3100,13 +3124,13 @@
         <v>20302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3115,13 +3139,13 @@
         <v>52976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3160,13 @@
         <v>251229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -3151,13 +3175,13 @@
         <v>276599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -3166,13 +3190,13 @@
         <v>527828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3264,13 @@
         <v>60192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3255,13 +3279,13 @@
         <v>36587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3270,13 +3294,13 @@
         <v>96779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3315,13 @@
         <v>358049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3306,13 +3330,13 @@
         <v>471095</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3321,13 +3345,13 @@
         <v>829145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3419,13 @@
         <v>164868</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>103</v>
@@ -3410,13 +3434,13 @@
         <v>119300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -3425,13 +3449,13 @@
         <v>284168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3470,13 @@
         <v>1234658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>1284</v>
@@ -3461,13 +3485,13 @@
         <v>1476506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>2476</v>
@@ -3476,13 +3500,13 @@
         <v>2711164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A44562-3F70-4023-AB0A-0E136E259047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CD80F3-2997-43A1-96DB-6F4D9DBFD701}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3707,13 @@
         <v>15464</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3698,13 +3722,13 @@
         <v>18961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -3713,13 +3737,13 @@
         <v>34425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3758,13 @@
         <v>42229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3749,13 +3773,13 @@
         <v>57461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -3764,13 +3788,13 @@
         <v>99689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3862,13 @@
         <v>81803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -3853,13 +3877,13 @@
         <v>86482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>282</v>
@@ -3868,13 +3892,13 @@
         <v>168286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3913,13 @@
         <v>176314</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -3904,13 +3928,13 @@
         <v>213828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -3919,13 +3943,13 @@
         <v>390141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4017,13 @@
         <v>204458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -4008,13 +4032,13 @@
         <v>141660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>420</v>
@@ -4023,13 +4047,13 @@
         <v>346118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4068,13 @@
         <v>272950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>584</v>
@@ -4059,13 +4083,13 @@
         <v>331708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>908</v>
@@ -4074,13 +4098,13 @@
         <v>604658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4172,13 @@
         <v>114076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4163,13 +4187,13 @@
         <v>78644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -4178,13 +4202,13 @@
         <v>192720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,28 +4223,28 @@
         <v>229384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>395</v>
       </c>
       <c r="I14" s="7">
-        <v>353397</v>
+        <v>353396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>648</v>
@@ -4229,13 +4253,13 @@
         <v>582780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,7 +4286,7 @@
         <v>530</v>
       </c>
       <c r="I15" s="7">
-        <v>432041</v>
+        <v>432040</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4303,13 +4327,13 @@
         <v>204698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>323</v>
@@ -4318,13 +4342,13 @@
         <v>202534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>590</v>
@@ -4333,13 +4357,13 @@
         <v>407232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4378,13 @@
         <v>270119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>616</v>
@@ -4369,13 +4393,13 @@
         <v>384168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>958</v>
@@ -4384,13 +4408,13 @@
         <v>654287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4482,13 @@
         <v>620499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>900</v>
@@ -4473,13 +4497,13 @@
         <v>528281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>1615</v>
@@ -4488,13 +4512,13 @@
         <v>1148780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,28 +4533,28 @@
         <v>990995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>2168</v>
       </c>
       <c r="I20" s="7">
-        <v>1340562</v>
+        <v>1340561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>3391</v>
@@ -4539,13 +4563,13 @@
         <v>2331556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4596,7 @@
         <v>3068</v>
       </c>
       <c r="I21" s="7">
-        <v>1868843</v>
+        <v>1868842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P44-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F14E143-CC02-494E-A9D2-FEC41D9EB33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896A9DB9-F00B-45FD-92D7-F92B72E6C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{735DF2B1-42FC-4B47-9874-891472C534FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3950C0CB-E15F-4E7A-8ECF-279CAAA1C21F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,652 +79,628 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,0%</t>
+    <t>12,13%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>13,56%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>86,44%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -1457,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A92E5D-AFCC-4B3B-9B8B-33C254562992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC525552-9293-4276-B7CF-F79A14005298}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2520,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD6E38F-0C90-4FDD-8F77-5EB50CAD7754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37F09D0-31E3-4EE2-A659-D26A2BED102F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2647,10 +2623,10 @@
         <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2659,13 +2635,13 @@
         <v>4959</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2674,13 +2650,13 @@
         <v>13215</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2671,13 @@
         <v>45877</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -2710,13 +2686,13 @@
         <v>45238</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -2725,13 +2701,13 @@
         <v>91115</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2775,13 @@
         <v>23446</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2814,13 +2790,13 @@
         <v>22757</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2832,10 +2808,10 @@
         <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2826,13 @@
         <v>213961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -2865,13 +2841,13 @@
         <v>249943</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>441</v>
@@ -2883,10 +2859,10 @@
         <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2930,13 @@
         <v>40300</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2969,13 +2945,13 @@
         <v>34695</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2984,13 +2960,13 @@
         <v>74994</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2981,13 @@
         <v>365541</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -3020,13 +2996,13 @@
         <v>433631</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>721</v>
@@ -3035,13 +3011,13 @@
         <v>799173</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3085,13 @@
         <v>32674</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3124,13 +3100,13 @@
         <v>20302</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3139,13 +3115,13 @@
         <v>52976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,16 +3133,16 @@
         <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>251229</v>
+        <v>251230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -3175,13 +3151,13 @@
         <v>276599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -3190,13 +3166,13 @@
         <v>527828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3184,7 @@
         <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>283903</v>
+        <v>283904</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3264,13 +3240,13 @@
         <v>60192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3279,13 +3255,13 @@
         <v>36587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3294,13 +3270,13 @@
         <v>96779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3291,13 @@
         <v>358049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3330,13 +3306,13 @@
         <v>471095</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3345,13 +3321,13 @@
         <v>829145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3395,13 @@
         <v>164868</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>103</v>
@@ -3434,13 +3410,13 @@
         <v>119300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -3449,13 +3425,13 @@
         <v>284168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3446,13 @@
         <v>1234658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>1284</v>
@@ -3485,13 +3461,13 @@
         <v>1476506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>2476</v>
@@ -3500,13 +3476,13 @@
         <v>2711164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CD80F3-2997-43A1-96DB-6F4D9DBFD701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0429B101-C7BB-4E05-AB0E-DB163FAD045C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,13 +3683,13 @@
         <v>15464</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3722,13 +3698,13 @@
         <v>18961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -3737,13 +3713,13 @@
         <v>34425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3734,13 @@
         <v>42229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3773,13 +3749,13 @@
         <v>57461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -3788,13 +3764,13 @@
         <v>99689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3838,13 @@
         <v>81803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -3877,13 +3853,13 @@
         <v>86482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>282</v>
@@ -3892,13 +3868,13 @@
         <v>168286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3889,13 @@
         <v>176314</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -3928,13 +3904,13 @@
         <v>213828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -3943,13 +3919,13 @@
         <v>390141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +3993,13 @@
         <v>204458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -4032,13 +4008,13 @@
         <v>141660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>420</v>
@@ -4047,13 +4023,13 @@
         <v>346118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4044,13 @@
         <v>272950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>584</v>
@@ -4083,13 +4059,13 @@
         <v>331708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>908</v>
@@ -4098,13 +4074,13 @@
         <v>604658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4148,13 @@
         <v>114076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4187,13 +4163,13 @@
         <v>78644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -4202,13 +4178,13 @@
         <v>192720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4199,13 @@
         <v>229384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>395</v>
@@ -4238,13 +4214,13 @@
         <v>353396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>648</v>
@@ -4253,13 +4229,13 @@
         <v>582780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4303,13 @@
         <v>204698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>323</v>
@@ -4342,13 +4318,13 @@
         <v>202534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>590</v>
@@ -4357,13 +4333,13 @@
         <v>407232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4354,13 @@
         <v>270119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>616</v>
@@ -4393,13 +4369,13 @@
         <v>384168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>958</v>
@@ -4408,13 +4384,13 @@
         <v>654287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4458,13 @@
         <v>620499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>900</v>
@@ -4497,13 +4473,13 @@
         <v>528281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>1615</v>
@@ -4512,13 +4488,13 @@
         <v>1148780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4509,13 @@
         <v>990995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>2168</v>
@@ -4548,13 +4524,13 @@
         <v>1340561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>3391</v>
@@ -4563,13 +4539,13 @@
         <v>2331556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896A9DB9-F00B-45FD-92D7-F92B72E6C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44479C3F-8679-4947-862A-5616036F993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3950C0CB-E15F-4E7A-8ECF-279CAAA1C21F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E38028F-9ABA-4955-A128-01A48F0313B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,91%</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,13%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>5,9%</t>
@@ -88,16 +88,16 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>17,47%</t>
+    <t>15,8%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>96,09%</t>
   </si>
   <si>
-    <t>87,87%</t>
+    <t>86,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>94,1%</t>
   </si>
   <si>
-    <t>82,53%</t>
+    <t>84,2%</t>
   </si>
   <si>
     <t>98,13%</t>
@@ -124,10 +124,10 @@
     <t>94,98%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -196,511 +196,505 @@
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>13,56%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>86,44%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -709,319 +703,325 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>39,24%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
   </si>
   <si>
     <t>60,76%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC525552-9293-4276-B7CF-F79A14005298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ADC201-AA51-4DF5-AA8D-718F5F4135D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2496,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37F09D0-31E3-4EE2-A659-D26A2BED102F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F792618-E066-4A43-835A-398AB44FAB40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,7 +2623,7 @@
         <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>126</v>
@@ -2638,10 +2638,10 @@
         <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2650,13 +2650,13 @@
         <v>13215</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2671,13 @@
         <v>45877</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -2686,13 +2686,13 @@
         <v>45238</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -2701,13 +2701,13 @@
         <v>91115</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,10 +2778,10 @@
         <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2790,13 +2790,13 @@
         <v>22757</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2808,10 +2808,10 @@
         <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2826,13 @@
         <v>213961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -2841,13 +2841,13 @@
         <v>249943</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>441</v>
@@ -2859,10 +2859,10 @@
         <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2930,13 @@
         <v>40300</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2945,13 +2945,13 @@
         <v>34695</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2960,13 +2960,13 @@
         <v>74994</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2981,13 @@
         <v>365541</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -2996,13 +2996,13 @@
         <v>433631</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>721</v>
@@ -3011,13 +3011,13 @@
         <v>799173</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3085,13 @@
         <v>32674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3100,13 +3100,13 @@
         <v>20302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3115,13 +3115,13 @@
         <v>52976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,16 +3133,16 @@
         <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>251230</v>
+        <v>251229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -3151,13 +3151,13 @@
         <v>276599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -3166,10 +3166,10 @@
         <v>527828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>184</v>
@@ -3184,7 +3184,7 @@
         <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>283904</v>
+        <v>283903</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3240,13 +3240,13 @@
         <v>60192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3255,13 +3255,13 @@
         <v>36587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -3270,13 +3270,13 @@
         <v>96779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3291,13 @@
         <v>358049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3306,13 +3306,13 @@
         <v>471095</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3321,13 +3321,13 @@
         <v>829145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3395,13 @@
         <v>164868</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>103</v>
@@ -3410,13 +3410,13 @@
         <v>119300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -3425,13 +3425,13 @@
         <v>284168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3446,13 @@
         <v>1234658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>1284</v>
@@ -3461,13 +3461,13 @@
         <v>1476506</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>2476</v>
@@ -3476,13 +3476,13 @@
         <v>2711164</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0429B101-C7BB-4E05-AB0E-DB163FAD045C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14685F6-F315-4A27-8BC2-D63C982F50BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3683,13 @@
         <v>15464</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3698,13 +3698,13 @@
         <v>18961</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -3713,13 +3713,13 @@
         <v>34425</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3734,13 @@
         <v>42229</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3749,13 +3749,13 @@
         <v>57461</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -3764,13 +3764,13 @@
         <v>99689</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3838,13 @@
         <v>81803</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -3853,13 +3853,13 @@
         <v>86482</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>282</v>
@@ -3868,13 +3868,13 @@
         <v>168286</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3889,13 @@
         <v>176314</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -3904,13 +3904,13 @@
         <v>213828</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -3919,13 +3919,13 @@
         <v>390141</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3993,13 @@
         <v>204458</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -4008,13 +4008,13 @@
         <v>141660</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>420</v>
@@ -4023,13 +4023,13 @@
         <v>346118</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4044,13 @@
         <v>272950</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>584</v>
@@ -4059,13 +4059,13 @@
         <v>331708</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>908</v>
@@ -4211,7 +4211,7 @@
         <v>395</v>
       </c>
       <c r="I14" s="7">
-        <v>353396</v>
+        <v>353397</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>286</v>
@@ -4262,7 +4262,7 @@
         <v>530</v>
       </c>
       <c r="I15" s="7">
-        <v>432040</v>
+        <v>432041</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4521,7 +4521,7 @@
         <v>2168</v>
       </c>
       <c r="I20" s="7">
-        <v>1340561</v>
+        <v>1340562</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>322</v>
@@ -4572,7 +4572,7 @@
         <v>3068</v>
       </c>
       <c r="I21" s="7">
-        <v>1868842</v>
+        <v>1868843</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P44-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44479C3F-8679-4947-862A-5616036F993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47C1102-F891-45F5-B7D0-82A453FB3F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E38028F-9ABA-4955-A128-01A48F0313B1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{412D607B-9998-40EA-B948-3E09A4116E20}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="279">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -67,573 +67,486 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
     <t>89,55%</t>
   </si>
   <si>
@@ -700,328 +613,268 @@
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
 </sst>
 </file>
@@ -1433,8 +1286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ADC201-AA51-4DF5-AA8D-718F5F4135D0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D310F2E-C6DF-42DE-ACA3-019FA4D8882A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1551,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>1685</v>
+        <v>15201</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1566,10 +1419,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>3192</v>
+        <v>16307</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1581,10 +1434,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>4876</v>
+        <v>31508</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1602,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="D5" s="7">
-        <v>41393</v>
+        <v>251876</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1617,10 +1470,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="I5" s="7">
-        <v>50937</v>
+        <v>283389</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1632,10 +1485,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>496</v>
       </c>
       <c r="N5" s="7">
-        <v>92331</v>
+        <v>535265</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1653,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="D6" s="7">
-        <v>43078</v>
+        <v>267077</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1521,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="I6" s="7">
-        <v>54129</v>
+        <v>299696</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1536,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>95</v>
+        <v>527</v>
       </c>
       <c r="N6" s="7">
-        <v>97207</v>
+        <v>566773</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1706,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>13516</v>
+        <v>28501</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1721,10 +1574,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>13116</v>
+        <v>37386</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1736,10 +1589,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>26632</v>
+        <v>65887</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1757,10 +1610,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>210483</v>
+        <v>303140</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1772,10 +1625,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="I8" s="7">
-        <v>232451</v>
+        <v>358358</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1787,10 +1640,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>406</v>
+        <v>598</v>
       </c>
       <c r="N8" s="7">
-        <v>442934</v>
+        <v>661498</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1808,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7">
-        <v>223999</v>
+        <v>331641</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1823,10 +1676,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>245567</v>
+        <v>395744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1838,10 +1691,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>432</v>
+        <v>656</v>
       </c>
       <c r="N9" s="7">
-        <v>469566</v>
+        <v>727385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1861,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>28501</v>
+        <v>28624</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1876,10 +1729,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>37386</v>
+        <v>27406</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1891,10 +1744,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>65887</v>
+        <v>56030</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1912,10 +1765,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>303140</v>
+        <v>216476</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1927,10 +1780,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7">
-        <v>358358</v>
+        <v>275628</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1942,10 +1795,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>598</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>661498</v>
+        <v>492104</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1963,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>331641</v>
+        <v>245100</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1831,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="I12" s="7">
-        <v>395744</v>
+        <v>303034</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1846,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>656</v>
+        <v>482</v>
       </c>
       <c r="N12" s="7">
-        <v>727385</v>
+        <v>548134</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1869,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>28624</v>
+        <v>41431</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2031,10 +1884,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>27406</v>
+        <v>28962</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2046,19 +1899,19 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>56030</v>
+        <v>70393</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,49 +1920,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>216476</v>
+        <v>308799</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>415</v>
+      </c>
+      <c r="I14" s="7">
+        <v>440044</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>275628</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>698</v>
+      </c>
+      <c r="N14" s="7">
+        <v>748843</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>435</v>
-      </c>
-      <c r="N14" s="7">
-        <v>492104</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,10 +1971,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="D15" s="7">
-        <v>245100</v>
+        <v>350230</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1986,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>270</v>
+        <v>441</v>
       </c>
       <c r="I15" s="7">
-        <v>303034</v>
+        <v>469006</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2148,10 +2001,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>760</v>
       </c>
       <c r="N15" s="7">
-        <v>548134</v>
+        <v>819236</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2165,55 +2018,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>41431</v>
+        <v>113757</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>100</v>
+      </c>
+      <c r="I16" s="7">
+        <v>110061</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28962</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>198</v>
+      </c>
+      <c r="N16" s="7">
+        <v>223818</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>62</v>
-      </c>
-      <c r="N16" s="7">
-        <v>70393</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,49 +2075,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>283</v>
+        <v>978</v>
       </c>
       <c r="D17" s="7">
-        <v>308799</v>
+        <v>1080292</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1249</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1357419</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>415</v>
-      </c>
-      <c r="I17" s="7">
-        <v>440044</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2227</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2437710</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>698</v>
-      </c>
-      <c r="N17" s="7">
-        <v>748843</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>319</v>
+        <v>1076</v>
       </c>
       <c r="D18" s="7">
-        <v>350230</v>
+        <v>1194049</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2141,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>441</v>
+        <v>1349</v>
       </c>
       <c r="I18" s="7">
-        <v>469006</v>
+        <v>1467480</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2156,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>760</v>
+        <v>2425</v>
       </c>
       <c r="N18" s="7">
-        <v>819236</v>
+        <v>2661528</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2319,171 +2172,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7">
-        <v>113756</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>100</v>
-      </c>
-      <c r="I19" s="7">
-        <v>110061</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>198</v>
-      </c>
-      <c r="N19" s="7">
-        <v>223818</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>978</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1080292</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1249</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1357419</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2227</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2437710</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1076</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1194048</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1349</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1467480</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2425</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2661528</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2496,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F792618-E066-4A43-835A-398AB44FAB40}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93049C46-BFD9-41F6-B54C-6F61FA729B22}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2513,7 +2210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2614,49 +2311,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>8256</v>
+        <v>31702</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>4959</v>
+        <v>27716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>13215</v>
+        <v>59418</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,49 +2362,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="D5" s="7">
-        <v>45877</v>
+        <v>259838</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="I5" s="7">
-        <v>45238</v>
+        <v>295181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>88</v>
+        <v>529</v>
       </c>
       <c r="N5" s="7">
-        <v>91115</v>
+        <v>555020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="D6" s="7">
-        <v>54133</v>
+        <v>291540</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2731,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="I6" s="7">
-        <v>50197</v>
+        <v>322897</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2746,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>101</v>
+        <v>584</v>
       </c>
       <c r="N6" s="7">
-        <v>104330</v>
+        <v>614438</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2769,49 +2466,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>23446</v>
+        <v>40300</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7">
+        <v>34695</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="7">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>22757</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N7" s="7">
-        <v>46202</v>
+        <v>74994</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,49 +2517,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D8" s="7">
-        <v>213961</v>
+        <v>365541</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7">
+        <v>375</v>
+      </c>
+      <c r="I8" s="7">
+        <v>433631</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="7">
-        <v>230</v>
-      </c>
-      <c r="I8" s="7">
-        <v>249943</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
-        <v>441</v>
+        <v>721</v>
       </c>
       <c r="N8" s="7">
-        <v>463906</v>
+        <v>799173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="D9" s="7">
-        <v>237407</v>
+        <v>405841</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2886,10 +2583,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="I9" s="7">
-        <v>272700</v>
+        <v>468326</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2901,10 +2598,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>483</v>
+        <v>790</v>
       </c>
       <c r="N9" s="7">
-        <v>510108</v>
+        <v>874167</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2924,49 +2621,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>40300</v>
+        <v>32674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>34695</v>
+        <v>20302</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>74994</v>
+        <v>52976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2672,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="D11" s="7">
-        <v>365541</v>
+        <v>251229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>433631</v>
+        <v>276599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>721</v>
+        <v>466</v>
       </c>
       <c r="N11" s="7">
-        <v>799173</v>
+        <v>527828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>386</v>
+        <v>261</v>
       </c>
       <c r="D12" s="7">
-        <v>405841</v>
+        <v>283903</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7">
-        <v>468326</v>
+        <v>296901</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>790</v>
+        <v>515</v>
       </c>
       <c r="N12" s="7">
-        <v>874167</v>
+        <v>580804</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2776,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7">
+        <v>60192</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="7">
         <v>31</v>
       </c>
-      <c r="D13" s="7">
-        <v>32674</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
       <c r="I13" s="7">
-        <v>20302</v>
+        <v>36587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>52976</v>
+        <v>96779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2827,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D14" s="7">
-        <v>251229</v>
+        <v>358049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="I14" s="7">
-        <v>276599</v>
+        <v>471095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>466</v>
+        <v>760</v>
       </c>
       <c r="N14" s="7">
-        <v>527828</v>
+        <v>829144</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>261</v>
+        <v>418</v>
       </c>
       <c r="D15" s="7">
-        <v>283903</v>
+        <v>418241</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2893,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>431</v>
       </c>
       <c r="I15" s="7">
-        <v>296901</v>
+        <v>507682</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2908,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>515</v>
+        <v>849</v>
       </c>
       <c r="N15" s="7">
-        <v>580804</v>
+        <v>925923</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3228,55 +2925,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D16" s="7">
-        <v>60192</v>
+        <v>164868</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>36587</v>
+        <v>119300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="N16" s="7">
-        <v>96779</v>
+        <v>284168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2982,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="D17" s="7">
-        <v>358049</v>
+        <v>1234658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>400</v>
+        <v>1284</v>
       </c>
       <c r="I17" s="7">
-        <v>471095</v>
+        <v>1476506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>760</v>
+        <v>2476</v>
       </c>
       <c r="N17" s="7">
-        <v>829145</v>
+        <v>2711164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>418</v>
+        <v>1351</v>
       </c>
       <c r="D18" s="7">
-        <v>418241</v>
+        <v>1399526</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3048,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>431</v>
+        <v>1387</v>
       </c>
       <c r="I18" s="7">
-        <v>507682</v>
+        <v>1595806</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3063,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>849</v>
+        <v>2738</v>
       </c>
       <c r="N18" s="7">
-        <v>925924</v>
+        <v>2995332</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3382,171 +3079,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>159</v>
-      </c>
-      <c r="D19" s="7">
-        <v>164868</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="7">
-        <v>103</v>
-      </c>
-      <c r="I19" s="7">
-        <v>119300</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M19" s="7">
-        <v>262</v>
-      </c>
-      <c r="N19" s="7">
-        <v>284168</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1192</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1234658</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1284</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1476506</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2476</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2711164</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1351</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1399526</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1387</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1595806</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2738</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2995332</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3559,8 +3100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14685F6-F315-4A27-8BC2-D63C982F50BF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3F666-E7F8-4D9F-8B2A-4A5D380BFEDA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3576,7 +3117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3677,49 +3218,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7">
-        <v>15464</v>
+        <v>92986</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="I4" s="7">
-        <v>18961</v>
+        <v>97661</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>339</v>
       </c>
       <c r="N4" s="7">
-        <v>34425</v>
+        <v>190647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,49 +3269,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="D5" s="7">
-        <v>42229</v>
+        <v>207033</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>131</v>
+        <v>573</v>
       </c>
       <c r="I5" s="7">
-        <v>57461</v>
+        <v>253228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>190</v>
+        <v>877</v>
       </c>
       <c r="N5" s="7">
-        <v>99689</v>
+        <v>460261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="D6" s="7">
-        <v>57693</v>
+        <v>300019</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3794,10 +3335,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>782</v>
       </c>
       <c r="I6" s="7">
-        <v>76422</v>
+        <v>350889</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3809,10 +3350,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>247</v>
+        <v>1216</v>
       </c>
       <c r="N6" s="7">
-        <v>134114</v>
+        <v>650908</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3832,49 +3373,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>81803</v>
+        <v>386980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="I7" s="7">
-        <v>86482</v>
+        <v>127184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>282</v>
+        <v>420</v>
       </c>
       <c r="N7" s="7">
-        <v>168286</v>
+        <v>514163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,49 +3424,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="D8" s="7">
-        <v>176314</v>
+        <v>256346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>442</v>
+        <v>584</v>
       </c>
       <c r="I8" s="7">
-        <v>213828</v>
+        <v>301352</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>687</v>
+        <v>908</v>
       </c>
       <c r="N8" s="7">
-        <v>390141</v>
+        <v>557699</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,10 +3475,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="D9" s="7">
-        <v>258117</v>
+        <v>643326</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3949,10 +3490,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>612</v>
+        <v>817</v>
       </c>
       <c r="I9" s="7">
-        <v>300310</v>
+        <v>428536</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3964,10 +3505,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>969</v>
+        <v>1328</v>
       </c>
       <c r="N9" s="7">
-        <v>558427</v>
+        <v>1071862</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3987,49 +3528,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D10" s="7">
-        <v>204458</v>
+        <v>107725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
+        <v>135</v>
+      </c>
+      <c r="I10" s="7">
+        <v>72306</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="7">
+        <v>266</v>
+      </c>
+      <c r="N10" s="7">
+        <v>180030</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="7">
-        <v>141660</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M10" s="7">
-        <v>420</v>
-      </c>
-      <c r="N10" s="7">
-        <v>346118</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3579,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="D11" s="7">
-        <v>272950</v>
+        <v>214531</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>584</v>
+        <v>395</v>
       </c>
       <c r="I11" s="7">
-        <v>331708</v>
+        <v>427917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>908</v>
+        <v>648</v>
       </c>
       <c r="N11" s="7">
-        <v>604658</v>
+        <v>642448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="D12" s="7">
-        <v>477408</v>
+        <v>322256</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3645,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>817</v>
+        <v>530</v>
       </c>
       <c r="I12" s="7">
-        <v>473368</v>
+        <v>500223</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3660,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1328</v>
+        <v>914</v>
       </c>
       <c r="N12" s="7">
-        <v>950776</v>
+        <v>822478</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3683,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="D13" s="7">
-        <v>114076</v>
+        <v>192807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="I13" s="7">
-        <v>78644</v>
+        <v>182272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>266</v>
+        <v>590</v>
       </c>
       <c r="N13" s="7">
-        <v>192720</v>
+        <v>375079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3734,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>229384</v>
+        <v>251616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>395</v>
+        <v>616</v>
       </c>
       <c r="I14" s="7">
-        <v>353397</v>
+        <v>346042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>648</v>
+        <v>958</v>
       </c>
       <c r="N14" s="7">
-        <v>582780</v>
+        <v>597658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>384</v>
+        <v>609</v>
       </c>
       <c r="D15" s="7">
-        <v>343460</v>
+        <v>444423</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3800,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>530</v>
+        <v>939</v>
       </c>
       <c r="I15" s="7">
-        <v>432041</v>
+        <v>528314</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>914</v>
+        <v>1548</v>
       </c>
       <c r="N15" s="7">
-        <v>775500</v>
+        <v>972737</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4291,55 +3832,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>715</v>
+      </c>
+      <c r="D16" s="7">
+        <v>780497</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="7">
+        <v>900</v>
+      </c>
+      <c r="I16" s="7">
+        <v>479423</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="7">
-        <v>204698</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="7">
-        <v>323</v>
-      </c>
-      <c r="I16" s="7">
-        <v>202534</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>590</v>
+        <v>1615</v>
       </c>
       <c r="N16" s="7">
-        <v>407232</v>
+        <v>1259920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3889,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>342</v>
+        <v>1223</v>
       </c>
       <c r="D17" s="7">
-        <v>270119</v>
+        <v>929527</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
-        <v>616</v>
+        <v>2168</v>
       </c>
       <c r="I17" s="7">
-        <v>384168</v>
+        <v>1328539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
-        <v>958</v>
+        <v>3391</v>
       </c>
       <c r="N17" s="7">
-        <v>654287</v>
+        <v>2258066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>609</v>
+        <v>1938</v>
       </c>
       <c r="D18" s="7">
-        <v>474817</v>
+        <v>1710024</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>939</v>
+        <v>3068</v>
       </c>
       <c r="I18" s="7">
-        <v>586702</v>
+        <v>1807962</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3970,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1548</v>
+        <v>5006</v>
       </c>
       <c r="N18" s="7">
-        <v>1061519</v>
+        <v>3517986</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4445,171 +3986,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>715</v>
-      </c>
-      <c r="D19" s="7">
-        <v>620499</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>900</v>
-      </c>
-      <c r="I19" s="7">
-        <v>528281</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1148780</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1223</v>
-      </c>
-      <c r="D20" s="7">
-        <v>990995</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2168</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1340562</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3391</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2331556</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1938</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1611494</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3068</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1868843</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5006</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3480336</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
